--- a/db/dummydata/schryver/schryver__freight_rates.xlsx
+++ b/db/dummydata/schryver/schryver__freight_rates.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Tabelle1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tabelle1!$A$1:$U$154</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tabelle1!$A$1:$U$238</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="42">
   <si>
     <t>CUSTOMER_ID</t>
   </si>
@@ -108,10 +108,10 @@
     <t>fcl_40</t>
   </si>
   <si>
-    <t>Rotterdam</t>
+    <t>fcl_40_hq</t>
   </si>
   <si>
-    <t>fcl_40_hq</t>
+    <t>Rotterdam</t>
   </si>
   <si>
     <t>Antwerp</t>
@@ -178,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -190,6 +190,27 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -236,7 +257,7 @@
     <col customWidth="1" min="21" max="21" width="14.14"/>
     <col customWidth="1" min="22" max="22" width="17.86"/>
     <col customWidth="1" min="23" max="23" width="16.43"/>
-    <col customWidth="1" min="24" max="30" width="8.71"/>
+    <col customWidth="1" min="24" max="32" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -370,7 +391,7 @@
         <v>43544.0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>25</v>
@@ -408,7 +429,7 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3">
         <v>43282.0</v>
@@ -417,7 +438,7 @@
         <v>43544.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>25</v>
@@ -448,55 +469,70 @@
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="7">
         <v>43282.0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="8">
         <v>43544.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="K5">
-        <v>1000.0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="1">
+      <c r="J5" s="10">
+        <v>20.0</v>
+      </c>
+      <c r="K5" s="10">
+        <v>1000.0</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="11">
         <v>550.0</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="11">
         <v>550.0</v>
       </c>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -511,7 +547,7 @@
         <v>43544.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>25</v>
@@ -535,21 +571,21 @@
         <v>29</v>
       </c>
       <c r="P6" s="1">
-        <v>875.0</v>
+        <v>850.0</v>
       </c>
       <c r="Q6" s="1">
-        <v>875.0</v>
+        <v>850.0</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="3">
         <v>43282.0</v>
@@ -558,7 +594,7 @@
         <v>43544.0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>25</v>
@@ -582,62 +618,77 @@
         <v>29</v>
       </c>
       <c r="P7" s="1">
-        <v>875.0</v>
+        <v>850.0</v>
       </c>
       <c r="Q7" s="1">
-        <v>875.0</v>
+        <v>850.0</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="7">
         <v>43282.0</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="8">
         <v>43544.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="K8">
-        <v>1000.0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="1">
+      <c r="J8" s="10">
+        <v>20.0</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1000.0</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="11">
         <v>550.0</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="11">
         <v>550.0</v>
       </c>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -652,7 +703,7 @@
         <v>43544.0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>25</v>
@@ -676,21 +727,21 @@
         <v>29</v>
       </c>
       <c r="P9" s="1">
-        <v>875.0</v>
+        <v>850.0</v>
       </c>
       <c r="Q9" s="1">
-        <v>875.0</v>
+        <v>850.0</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3">
         <v>43282.0</v>
@@ -723,15 +774,15 @@
         <v>29</v>
       </c>
       <c r="P10" s="1">
-        <v>875.0</v>
+        <v>850.0</v>
       </c>
       <c r="Q10" s="1">
-        <v>875.0</v>
+        <v>850.0</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -778,13 +829,13 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F12" s="3">
         <v>43282.0</v>
@@ -793,7 +844,7 @@
         <v>43544.0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>25</v>
@@ -817,21 +868,21 @@
         <v>29</v>
       </c>
       <c r="P12" s="1">
-        <v>850.0</v>
+        <v>550.0</v>
       </c>
       <c r="Q12" s="1">
-        <v>850.0</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
+        <v>550.0</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3">
         <v>43282.0</v>
@@ -864,13 +915,13 @@
         <v>29</v>
       </c>
       <c r="P13" s="1">
-        <v>850.0</v>
+        <v>550.0</v>
       </c>
       <c r="Q13" s="1">
-        <v>850.0</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
+        <v>550.0</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
       <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
@@ -878,7 +929,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F14" s="3">
         <v>43282.0</v>
@@ -911,13 +962,13 @@
         <v>29</v>
       </c>
       <c r="P14" s="1">
-        <v>550.0</v>
+        <v>875.0</v>
       </c>
       <c r="Q14" s="1">
-        <v>550.0</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
+        <v>875.0</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
       <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
@@ -934,7 +985,7 @@
         <v>43544.0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>25</v>
@@ -964,7 +1015,7 @@
         <v>875.0</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" ht="12.75" customHeight="1">
       <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
@@ -972,7 +1023,7 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F16" s="3">
         <v>43282.0</v>
@@ -1011,15 +1062,15 @@
         <v>875.0</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" ht="12.75" customHeight="1">
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F17" s="3">
         <v>43282.0</v>
@@ -1052,30 +1103,30 @@
         <v>29</v>
       </c>
       <c r="P17" s="1">
-        <v>550.0</v>
+        <v>875.0</v>
       </c>
       <c r="Q17" s="1">
-        <v>550.0</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
+        <v>875.0</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18" s="3">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="G18" s="4">
-        <v>43544.0</v>
+        <v>43545.0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>25</v>
@@ -1105,21 +1156,21 @@
         <v>875.0</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" ht="12.75" customHeight="1">
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" s="3">
-        <v>43282.0</v>
+        <v>43284.0</v>
       </c>
       <c r="G19" s="4">
-        <v>43544.0</v>
+        <v>43546.0</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>33</v>
@@ -1152,9 +1203,9 @@
         <v>875.0</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" ht="12.75" customHeight="1">
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -1169,10 +1220,10 @@
         <v>43544.0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J20" s="1">
         <v>20.0</v>
@@ -1193,33 +1244,33 @@
         <v>29</v>
       </c>
       <c r="P20" s="1">
-        <v>750.0</v>
+        <v>550.0</v>
       </c>
       <c r="Q20" s="1">
-        <v>750.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>550.0</v>
+      </c>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="E21" t="s">
-        <v>30</v>
+      <c r="E21" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="F21" s="3">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="G21" s="4">
-        <v>43544.0</v>
+        <v>43545.0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J21" s="1">
         <v>20.0</v>
@@ -1240,33 +1291,33 @@
         <v>29</v>
       </c>
       <c r="P21" s="1">
-        <v>700.0</v>
+        <v>550.0</v>
       </c>
       <c r="Q21" s="1">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>550.0</v>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E22" t="s">
-        <v>32</v>
+      <c r="E22" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="F22" s="3">
-        <v>43282.0</v>
+        <v>43284.0</v>
       </c>
       <c r="G22" s="4">
-        <v>43544.0</v>
+        <v>43546.0</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J22" s="1">
         <v>20.0</v>
@@ -1287,21 +1338,21 @@
         <v>29</v>
       </c>
       <c r="P22" s="1">
-        <v>700.0</v>
+        <v>550.0</v>
       </c>
       <c r="Q22" s="1">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" t="s">
-        <v>21</v>
+        <v>550.0</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="C23" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F23" s="3">
         <v>43282.0</v>
@@ -1310,10 +1361,10 @@
         <v>43544.0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J23" s="1">
         <v>20.0</v>
@@ -1334,33 +1385,33 @@
         <v>29</v>
       </c>
       <c r="P23" s="1">
-        <v>1175.0</v>
+        <v>875.0</v>
       </c>
       <c r="Q23" s="1">
-        <v>1175.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" t="s">
-        <v>21</v>
+        <v>875.0</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="C24" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F24" s="3">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="G24" s="4">
-        <v>43544.0</v>
+        <v>43545.0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J24" s="1">
         <v>20.0</v>
@@ -1381,33 +1432,33 @@
         <v>29</v>
       </c>
       <c r="P24" s="1">
-        <v>1525.0</v>
+        <v>875.0</v>
       </c>
       <c r="Q24" s="1">
-        <v>1525.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" t="s">
-        <v>21</v>
+        <v>875.0</v>
+      </c>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="C25" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
       </c>
-      <c r="E25" t="s">
-        <v>32</v>
+      <c r="E25" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F25" s="3">
-        <v>43282.0</v>
+        <v>43284.0</v>
       </c>
       <c r="G25" s="4">
-        <v>43544.0</v>
+        <v>43546.0</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J25" s="1">
         <v>20.0</v>
@@ -1428,21 +1479,21 @@
         <v>29</v>
       </c>
       <c r="P25" s="1">
-        <v>1525.0</v>
+        <v>875.0</v>
       </c>
       <c r="Q25" s="1">
-        <v>1525.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" t="s">
-        <v>39</v>
+        <v>875.0</v>
+      </c>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="C26" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F26" s="3">
         <v>43282.0</v>
@@ -1451,10 +1502,10 @@
         <v>43544.0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J26" s="1">
         <v>20.0</v>
@@ -1475,80 +1526,80 @@
         <v>29</v>
       </c>
       <c r="P26" s="1">
-        <v>1050.0</v>
+        <v>875.0</v>
       </c>
       <c r="Q26" s="1">
-        <v>1050.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" t="s">
-        <v>39</v>
+        <v>875.0</v>
+      </c>
+    </row>
+    <row r="27" ht="12.75" customHeight="1">
+      <c r="C27" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F27" s="3">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="G27" s="4">
-        <v>43544.0</v>
+        <v>43545.0</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K27">
+        <v>1000.0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" s="1">
+        <v>875.0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>875.0</v>
+      </c>
+    </row>
+    <row r="28" ht="12.75" customHeight="1">
+      <c r="C28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="K27">
-        <v>1000.0</v>
-      </c>
-      <c r="L27" t="s">
-        <v>26</v>
-      </c>
-      <c r="M27" t="s">
-        <v>27</v>
-      </c>
-      <c r="N27" t="s">
-        <v>28</v>
-      </c>
-      <c r="O27" t="s">
-        <v>29</v>
-      </c>
-      <c r="P27" s="1">
-        <v>1350.0</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>1350.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" t="s">
-        <v>32</v>
-      </c>
       <c r="F28" s="3">
-        <v>43282.0</v>
+        <v>43284.0</v>
       </c>
       <c r="G28" s="4">
-        <v>43544.0</v>
+        <v>43546.0</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J28" s="1">
         <v>20.0</v>
@@ -1569,15 +1620,15 @@
         <v>29</v>
       </c>
       <c r="P28" s="1">
-        <v>1350.0</v>
+        <v>875.0</v>
       </c>
       <c r="Q28" s="1">
-        <v>1350.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" t="s">
-        <v>40</v>
+        <v>875.0</v>
+      </c>
+    </row>
+    <row r="29" ht="12.75" customHeight="1">
+      <c r="C29" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -1591,11 +1642,11 @@
       <c r="G29" s="4">
         <v>43544.0</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>37</v>
+      <c r="H29" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J29" s="1">
         <v>20.0</v>
@@ -1616,115 +1667,115 @@
         <v>29</v>
       </c>
       <c r="P29" s="1">
-        <v>945.0</v>
+        <v>550.0</v>
       </c>
       <c r="Q29" s="1">
-        <v>945.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" t="s">
-        <v>40</v>
+        <v>550.0</v>
+      </c>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="C30" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K30">
+        <v>1000.0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" s="1">
+        <v>550.0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>550.0</v>
+      </c>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="C31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K31">
+        <v>1000.0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" s="1">
+        <v>550.0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>550.0</v>
+      </c>
+    </row>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="C32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
         <v>30</v>
-      </c>
-      <c r="F30" s="3">
-        <v>43282.0</v>
-      </c>
-      <c r="G30" s="4">
-        <v>43544.0</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="K30">
-        <v>1000.0</v>
-      </c>
-      <c r="L30" t="s">
-        <v>26</v>
-      </c>
-      <c r="M30" t="s">
-        <v>27</v>
-      </c>
-      <c r="N30" t="s">
-        <v>28</v>
-      </c>
-      <c r="O30" t="s">
-        <v>29</v>
-      </c>
-      <c r="P30" s="1">
-        <v>990.0</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>990.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="3">
-        <v>43282.0</v>
-      </c>
-      <c r="G31" s="4">
-        <v>43544.0</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="K31">
-        <v>1000.0</v>
-      </c>
-      <c r="L31" t="s">
-        <v>26</v>
-      </c>
-      <c r="M31" t="s">
-        <v>27</v>
-      </c>
-      <c r="N31" t="s">
-        <v>28</v>
-      </c>
-      <c r="O31" t="s">
-        <v>29</v>
-      </c>
-      <c r="P31" s="1">
-        <v>990.0</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>990.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" t="s">
-        <v>23</v>
       </c>
       <c r="F32" s="3">
         <v>43282.0</v>
@@ -1732,11 +1783,11 @@
       <c r="G32" s="4">
         <v>43544.0</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>37</v>
+      <c r="H32" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J32" s="1">
         <v>20.0</v>
@@ -1757,115 +1808,115 @@
         <v>29</v>
       </c>
       <c r="P32" s="1">
-        <v>750.0</v>
+        <v>850.0</v>
       </c>
       <c r="Q32" s="1">
-        <v>750.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+        <v>850.0</v>
+      </c>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
       <c r="C33" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F33" s="3">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="G33" s="4">
-        <v>43544.0</v>
-      </c>
-      <c r="H33" s="1" t="s">
+        <v>43545.0</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K33">
+        <v>1000.0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" t="s">
+        <v>28</v>
+      </c>
+      <c r="O33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" s="1">
+        <v>850.0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>850.0</v>
+      </c>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="C34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K34">
+        <v>1000.0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" t="s">
+        <v>28</v>
+      </c>
+      <c r="O34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" s="1">
+        <v>850.0</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>850.0</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="C35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
         <v>31</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J33" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="K33">
-        <v>1000.0</v>
-      </c>
-      <c r="L33" t="s">
-        <v>26</v>
-      </c>
-      <c r="M33" t="s">
-        <v>27</v>
-      </c>
-      <c r="N33" t="s">
-        <v>28</v>
-      </c>
-      <c r="O33" t="s">
-        <v>29</v>
-      </c>
-      <c r="P33" s="1">
-        <v>700.0</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="3">
-        <v>43282.0</v>
-      </c>
-      <c r="G34" s="4">
-        <v>43544.0</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J34" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="K34">
-        <v>1000.0</v>
-      </c>
-      <c r="L34" t="s">
-        <v>26</v>
-      </c>
-      <c r="M34" t="s">
-        <v>27</v>
-      </c>
-      <c r="N34" t="s">
-        <v>28</v>
-      </c>
-      <c r="O34" t="s">
-        <v>29</v>
-      </c>
-      <c r="P34" s="1">
-        <v>700.0</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" t="s">
-        <v>23</v>
       </c>
       <c r="F35" s="3">
         <v>43282.0</v>
@@ -1873,11 +1924,11 @@
       <c r="G35" s="4">
         <v>43544.0</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>37</v>
+      <c r="H35" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J35" s="1">
         <v>20.0</v>
@@ -1898,80 +1949,80 @@
         <v>29</v>
       </c>
       <c r="P35" s="1">
-        <v>1175.0</v>
+        <v>850.0</v>
       </c>
       <c r="Q35" s="1">
-        <v>1175.0</v>
+        <v>850.0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F36" s="3">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="G36" s="4">
-        <v>43544.0</v>
-      </c>
-      <c r="H36" s="1" t="s">
+        <v>43545.0</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K36">
+        <v>1000.0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" t="s">
+        <v>28</v>
+      </c>
+      <c r="O36" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" s="1">
+        <v>850.0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>850.0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="C37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
         <v>31</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J36" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="K36">
-        <v>1000.0</v>
-      </c>
-      <c r="L36" t="s">
-        <v>26</v>
-      </c>
-      <c r="M36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P36" s="1">
-        <v>1525.0</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>1525.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" t="s">
-        <v>32</v>
-      </c>
       <c r="F37" s="3">
-        <v>43282.0</v>
+        <v>43284.0</v>
       </c>
       <c r="G37" s="4">
-        <v>43544.0</v>
-      </c>
-      <c r="H37" s="1" t="s">
+        <v>43546.0</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>33</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J37" s="1">
         <v>20.0</v>
@@ -1992,15 +2043,15 @@
         <v>29</v>
       </c>
       <c r="P37" s="1">
-        <v>1525.0</v>
+        <v>850.0</v>
       </c>
       <c r="Q37" s="1">
-        <v>1525.0</v>
+        <v>850.0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" t="s">
-        <v>39</v>
+      <c r="C38" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
@@ -2014,11 +2065,11 @@
       <c r="G38" s="4">
         <v>43544.0</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>37</v>
+      <c r="H38" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J38" s="1">
         <v>20.0</v>
@@ -2039,115 +2090,115 @@
         <v>29</v>
       </c>
       <c r="P38" s="1">
-        <v>1050.0</v>
+        <v>550.0</v>
       </c>
       <c r="Q38" s="1">
-        <v>1050.0</v>
+        <v>550.0</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" t="s">
-        <v>39</v>
+      <c r="C39" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D39" t="s">
         <v>22</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G39" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K39">
+        <v>1000.0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" t="s">
+        <v>27</v>
+      </c>
+      <c r="N39" t="s">
+        <v>28</v>
+      </c>
+      <c r="O39" t="s">
+        <v>29</v>
+      </c>
+      <c r="P39" s="1">
+        <v>550.0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>550.0</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="C40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K40">
+        <v>1000.0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O40" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" s="1">
+        <v>550.0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>550.0</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="C41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s">
         <v>30</v>
-      </c>
-      <c r="F39" s="3">
-        <v>43282.0</v>
-      </c>
-      <c r="G39" s="4">
-        <v>43544.0</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J39" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="K39">
-        <v>1000.0</v>
-      </c>
-      <c r="L39" t="s">
-        <v>26</v>
-      </c>
-      <c r="M39" t="s">
-        <v>27</v>
-      </c>
-      <c r="N39" t="s">
-        <v>28</v>
-      </c>
-      <c r="O39" t="s">
-        <v>29</v>
-      </c>
-      <c r="P39" s="1">
-        <v>1350.0</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>1350.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="3">
-        <v>43282.0</v>
-      </c>
-      <c r="G40" s="4">
-        <v>43544.0</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J40" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="K40">
-        <v>1000.0</v>
-      </c>
-      <c r="L40" t="s">
-        <v>26</v>
-      </c>
-      <c r="M40" t="s">
-        <v>27</v>
-      </c>
-      <c r="N40" t="s">
-        <v>28</v>
-      </c>
-      <c r="O40" t="s">
-        <v>29</v>
-      </c>
-      <c r="P40" s="1">
-        <v>1350.0</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>1350.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" t="s">
-        <v>23</v>
       </c>
       <c r="F41" s="3">
         <v>43282.0</v>
@@ -2155,550 +2206,4078 @@
       <c r="G41" s="4">
         <v>43544.0</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K41">
+        <v>1000.0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" t="s">
+        <v>28</v>
+      </c>
+      <c r="O41" t="s">
+        <v>29</v>
+      </c>
+      <c r="P41" s="1">
+        <v>875.0</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>875.0</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="C42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K42">
+        <v>1000.0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" t="s">
+        <v>28</v>
+      </c>
+      <c r="O42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" s="1">
+        <v>875.0</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>875.0</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="C43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G43" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K43">
+        <v>1000.0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" t="s">
+        <v>28</v>
+      </c>
+      <c r="O43" t="s">
+        <v>29</v>
+      </c>
+      <c r="P43" s="1">
+        <v>875.0</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>875.0</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="C44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G44" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K44">
+        <v>1000.0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" t="s">
+        <v>28</v>
+      </c>
+      <c r="O44" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44" s="1">
+        <v>875.0</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>875.0</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="C45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G45" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K45">
+        <v>1000.0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N45" t="s">
+        <v>28</v>
+      </c>
+      <c r="O45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P45" s="1">
+        <v>875.0</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>875.0</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="C46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G46" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K46">
+        <v>1000.0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" t="s">
+        <v>27</v>
+      </c>
+      <c r="N46" t="s">
+        <v>28</v>
+      </c>
+      <c r="O46" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46" s="1">
+        <v>875.0</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>875.0</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="C47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G47" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K47">
+        <v>1000.0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" t="s">
+        <v>27</v>
+      </c>
+      <c r="N47" t="s">
+        <v>28</v>
+      </c>
+      <c r="O47" t="s">
+        <v>29</v>
+      </c>
+      <c r="P47" s="1">
+        <v>550.0</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>550.0</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="C48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G48" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K48">
+        <v>1000.0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" t="s">
+        <v>28</v>
+      </c>
+      <c r="O48" t="s">
+        <v>29</v>
+      </c>
+      <c r="P48" s="1">
+        <v>550.0</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>550.0</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="C49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G49" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J49" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K49">
+        <v>1000.0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N49" t="s">
+        <v>28</v>
+      </c>
+      <c r="O49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P49" s="1">
+        <v>550.0</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>550.0</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="C50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G50" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K50">
+        <v>1000.0</v>
+      </c>
+      <c r="L50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" t="s">
+        <v>27</v>
+      </c>
+      <c r="N50" t="s">
+        <v>28</v>
+      </c>
+      <c r="O50" t="s">
+        <v>29</v>
+      </c>
+      <c r="P50" s="1">
+        <v>875.0</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>875.0</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="C51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G51" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J51" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K51">
+        <v>1000.0</v>
+      </c>
+      <c r="L51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" t="s">
+        <v>27</v>
+      </c>
+      <c r="N51" t="s">
+        <v>28</v>
+      </c>
+      <c r="O51" t="s">
+        <v>29</v>
+      </c>
+      <c r="P51" s="1">
+        <v>875.0</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>875.0</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="C52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G52" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K52">
+        <v>1000.0</v>
+      </c>
+      <c r="L52" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52" t="s">
+        <v>27</v>
+      </c>
+      <c r="N52" t="s">
+        <v>28</v>
+      </c>
+      <c r="O52" t="s">
+        <v>29</v>
+      </c>
+      <c r="P52" s="1">
+        <v>875.0</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>875.0</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="C53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G53" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J53" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K53">
+        <v>1000.0</v>
+      </c>
+      <c r="L53" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" t="s">
+        <v>27</v>
+      </c>
+      <c r="N53" t="s">
+        <v>28</v>
+      </c>
+      <c r="O53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P53" s="1">
+        <v>875.0</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>875.0</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="C54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G54" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K54">
+        <v>1000.0</v>
+      </c>
+      <c r="L54" t="s">
+        <v>26</v>
+      </c>
+      <c r="M54" t="s">
+        <v>27</v>
+      </c>
+      <c r="N54" t="s">
+        <v>28</v>
+      </c>
+      <c r="O54" t="s">
+        <v>29</v>
+      </c>
+      <c r="P54" s="1">
+        <v>875.0</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>875.0</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="C55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G55" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J55" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K55">
+        <v>1000.0</v>
+      </c>
+      <c r="L55" t="s">
+        <v>26</v>
+      </c>
+      <c r="M55" t="s">
+        <v>27</v>
+      </c>
+      <c r="N55" t="s">
+        <v>28</v>
+      </c>
+      <c r="O55" t="s">
+        <v>29</v>
+      </c>
+      <c r="P55" s="1">
+        <v>875.0</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>875.0</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="C56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G56" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J56" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K56">
+        <v>1000.0</v>
+      </c>
+      <c r="L56" t="s">
+        <v>26</v>
+      </c>
+      <c r="M56" t="s">
+        <v>27</v>
+      </c>
+      <c r="N56" t="s">
+        <v>28</v>
+      </c>
+      <c r="O56" t="s">
+        <v>29</v>
+      </c>
+      <c r="P56" s="1">
+        <v>750.0</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>750.0</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="C57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G57" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J57" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K57">
+        <v>1000.0</v>
+      </c>
+      <c r="L57" t="s">
+        <v>26</v>
+      </c>
+      <c r="M57" t="s">
+        <v>27</v>
+      </c>
+      <c r="N57" t="s">
+        <v>28</v>
+      </c>
+      <c r="O57" t="s">
+        <v>29</v>
+      </c>
+      <c r="P57" s="1">
+        <v>750.0</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>750.0</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="C58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G58" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J58" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K58">
+        <v>1000.0</v>
+      </c>
+      <c r="L58" t="s">
+        <v>26</v>
+      </c>
+      <c r="M58" t="s">
+        <v>27</v>
+      </c>
+      <c r="N58" t="s">
+        <v>28</v>
+      </c>
+      <c r="O58" t="s">
+        <v>29</v>
+      </c>
+      <c r="P58" s="1">
+        <v>750.0</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>750.0</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="C59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G59" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J59" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K59">
+        <v>1000.0</v>
+      </c>
+      <c r="L59" t="s">
+        <v>26</v>
+      </c>
+      <c r="M59" t="s">
+        <v>27</v>
+      </c>
+      <c r="N59" t="s">
+        <v>28</v>
+      </c>
+      <c r="O59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P59" s="1">
+        <v>700.0</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>700.0</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="C60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G60" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J60" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K60">
+        <v>1000.0</v>
+      </c>
+      <c r="L60" t="s">
+        <v>26</v>
+      </c>
+      <c r="M60" t="s">
+        <v>27</v>
+      </c>
+      <c r="N60" t="s">
+        <v>28</v>
+      </c>
+      <c r="O60" t="s">
+        <v>29</v>
+      </c>
+      <c r="P60" s="1">
+        <v>700.0</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>700.0</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="C61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G61" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J61" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K61">
+        <v>1000.0</v>
+      </c>
+      <c r="L61" t="s">
+        <v>26</v>
+      </c>
+      <c r="M61" t="s">
+        <v>27</v>
+      </c>
+      <c r="N61" t="s">
+        <v>28</v>
+      </c>
+      <c r="O61" t="s">
+        <v>29</v>
+      </c>
+      <c r="P61" s="1">
+        <v>700.0</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>700.0</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="C62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G62" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J62" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K62">
+        <v>1000.0</v>
+      </c>
+      <c r="L62" t="s">
+        <v>26</v>
+      </c>
+      <c r="M62" t="s">
+        <v>27</v>
+      </c>
+      <c r="N62" t="s">
+        <v>28</v>
+      </c>
+      <c r="O62" t="s">
+        <v>29</v>
+      </c>
+      <c r="P62" s="1">
+        <v>700.0</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>700.0</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="C63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G63" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J63" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K63">
+        <v>1000.0</v>
+      </c>
+      <c r="L63" t="s">
+        <v>26</v>
+      </c>
+      <c r="M63" t="s">
+        <v>27</v>
+      </c>
+      <c r="N63" t="s">
+        <v>28</v>
+      </c>
+      <c r="O63" t="s">
+        <v>29</v>
+      </c>
+      <c r="P63" s="1">
+        <v>700.0</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>700.0</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="C64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G64" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J64" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K64">
+        <v>1000.0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>26</v>
+      </c>
+      <c r="M64" t="s">
+        <v>27</v>
+      </c>
+      <c r="N64" t="s">
+        <v>28</v>
+      </c>
+      <c r="O64" t="s">
+        <v>29</v>
+      </c>
+      <c r="P64" s="1">
+        <v>700.0</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>700.0</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="C65" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G65" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J65" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K65">
+        <v>1000.0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>26</v>
+      </c>
+      <c r="M65" t="s">
+        <v>27</v>
+      </c>
+      <c r="N65" t="s">
+        <v>28</v>
+      </c>
+      <c r="O65" t="s">
+        <v>29</v>
+      </c>
+      <c r="P65" s="1">
+        <v>1175.0</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>1175.0</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="C66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G66" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J66" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K66">
+        <v>1000.0</v>
+      </c>
+      <c r="L66" t="s">
+        <v>26</v>
+      </c>
+      <c r="M66" t="s">
+        <v>27</v>
+      </c>
+      <c r="N66" t="s">
+        <v>28</v>
+      </c>
+      <c r="O66" t="s">
+        <v>29</v>
+      </c>
+      <c r="P66" s="1">
+        <v>1175.0</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>1175.0</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="C67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G67" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J67" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K67">
+        <v>1000.0</v>
+      </c>
+      <c r="L67" t="s">
+        <v>26</v>
+      </c>
+      <c r="M67" t="s">
+        <v>27</v>
+      </c>
+      <c r="N67" t="s">
+        <v>28</v>
+      </c>
+      <c r="O67" t="s">
+        <v>29</v>
+      </c>
+      <c r="P67" s="1">
+        <v>1175.0</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>1175.0</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="C68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G68" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J68" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K68">
+        <v>1000.0</v>
+      </c>
+      <c r="L68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M68" t="s">
+        <v>27</v>
+      </c>
+      <c r="N68" t="s">
+        <v>28</v>
+      </c>
+      <c r="O68" t="s">
+        <v>29</v>
+      </c>
+      <c r="P68" s="1">
+        <v>1525.0</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>1525.0</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="C69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G69" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J69" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K69">
+        <v>1000.0</v>
+      </c>
+      <c r="L69" t="s">
+        <v>26</v>
+      </c>
+      <c r="M69" t="s">
+        <v>27</v>
+      </c>
+      <c r="N69" t="s">
+        <v>28</v>
+      </c>
+      <c r="O69" t="s">
+        <v>29</v>
+      </c>
+      <c r="P69" s="1">
+        <v>1525.0</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>1525.0</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="C70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G70" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J70" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K70">
+        <v>1000.0</v>
+      </c>
+      <c r="L70" t="s">
+        <v>26</v>
+      </c>
+      <c r="M70" t="s">
+        <v>27</v>
+      </c>
+      <c r="N70" t="s">
+        <v>28</v>
+      </c>
+      <c r="O70" t="s">
+        <v>29</v>
+      </c>
+      <c r="P70" s="1">
+        <v>1525.0</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>1525.0</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="C71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G71" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J71" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K71">
+        <v>1000.0</v>
+      </c>
+      <c r="L71" t="s">
+        <v>26</v>
+      </c>
+      <c r="M71" t="s">
+        <v>27</v>
+      </c>
+      <c r="N71" t="s">
+        <v>28</v>
+      </c>
+      <c r="O71" t="s">
+        <v>29</v>
+      </c>
+      <c r="P71" s="1">
+        <v>1525.0</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>1525.0</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="C72" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G72" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J72" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K72">
+        <v>1000.0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>26</v>
+      </c>
+      <c r="M72" t="s">
+        <v>27</v>
+      </c>
+      <c r="N72" t="s">
+        <v>28</v>
+      </c>
+      <c r="O72" t="s">
+        <v>29</v>
+      </c>
+      <c r="P72" s="1">
+        <v>1525.0</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>1525.0</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="C73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G73" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J73" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K73">
+        <v>1000.0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>26</v>
+      </c>
+      <c r="M73" t="s">
+        <v>27</v>
+      </c>
+      <c r="N73" t="s">
+        <v>28</v>
+      </c>
+      <c r="O73" t="s">
+        <v>29</v>
+      </c>
+      <c r="P73" s="1">
+        <v>1525.0</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>1525.0</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="C74" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G74" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J74" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K74">
+        <v>1000.0</v>
+      </c>
+      <c r="L74" t="s">
+        <v>26</v>
+      </c>
+      <c r="M74" t="s">
+        <v>27</v>
+      </c>
+      <c r="N74" t="s">
+        <v>28</v>
+      </c>
+      <c r="O74" t="s">
+        <v>29</v>
+      </c>
+      <c r="P74" s="1">
+        <v>1050.0</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>1050.0</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="C75" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G75" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J75" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K75">
+        <v>1000.0</v>
+      </c>
+      <c r="L75" t="s">
+        <v>26</v>
+      </c>
+      <c r="M75" t="s">
+        <v>27</v>
+      </c>
+      <c r="N75" t="s">
+        <v>28</v>
+      </c>
+      <c r="O75" t="s">
+        <v>29</v>
+      </c>
+      <c r="P75" s="1">
+        <v>1050.0</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>1050.0</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="C76" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G76" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J76" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K76">
+        <v>1000.0</v>
+      </c>
+      <c r="L76" t="s">
+        <v>26</v>
+      </c>
+      <c r="M76" t="s">
+        <v>27</v>
+      </c>
+      <c r="N76" t="s">
+        <v>28</v>
+      </c>
+      <c r="O76" t="s">
+        <v>29</v>
+      </c>
+      <c r="P76" s="1">
+        <v>1050.0</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>1050.0</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="C77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" t="s">
+        <v>30</v>
+      </c>
+      <c r="F77" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G77" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J77" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K77">
+        <v>1000.0</v>
+      </c>
+      <c r="L77" t="s">
+        <v>26</v>
+      </c>
+      <c r="M77" t="s">
+        <v>27</v>
+      </c>
+      <c r="N77" t="s">
+        <v>28</v>
+      </c>
+      <c r="O77" t="s">
+        <v>29</v>
+      </c>
+      <c r="P77" s="1">
+        <v>1350.0</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>1350.0</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="C78" t="s">
+        <v>39</v>
+      </c>
+      <c r="D78" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G78" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J78" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K78">
+        <v>1000.0</v>
+      </c>
+      <c r="L78" t="s">
+        <v>26</v>
+      </c>
+      <c r="M78" t="s">
+        <v>27</v>
+      </c>
+      <c r="N78" t="s">
+        <v>28</v>
+      </c>
+      <c r="O78" t="s">
+        <v>29</v>
+      </c>
+      <c r="P78" s="1">
+        <v>1350.0</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>1350.0</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="C79" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G79" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J79" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K79">
+        <v>1000.0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>26</v>
+      </c>
+      <c r="M79" t="s">
+        <v>27</v>
+      </c>
+      <c r="N79" t="s">
+        <v>28</v>
+      </c>
+      <c r="O79" t="s">
+        <v>29</v>
+      </c>
+      <c r="P79" s="1">
+        <v>1350.0</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>1350.0</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="C80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80" t="s">
+        <v>22</v>
+      </c>
+      <c r="E80" t="s">
+        <v>31</v>
+      </c>
+      <c r="F80" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G80" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J80" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K80">
+        <v>1000.0</v>
+      </c>
+      <c r="L80" t="s">
+        <v>26</v>
+      </c>
+      <c r="M80" t="s">
+        <v>27</v>
+      </c>
+      <c r="N80" t="s">
+        <v>28</v>
+      </c>
+      <c r="O80" t="s">
+        <v>29</v>
+      </c>
+      <c r="P80" s="1">
+        <v>1350.0</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>1350.0</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="C81" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" t="s">
+        <v>31</v>
+      </c>
+      <c r="F81" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G81" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J81" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K81">
+        <v>1000.0</v>
+      </c>
+      <c r="L81" t="s">
+        <v>26</v>
+      </c>
+      <c r="M81" t="s">
+        <v>27</v>
+      </c>
+      <c r="N81" t="s">
+        <v>28</v>
+      </c>
+      <c r="O81" t="s">
+        <v>29</v>
+      </c>
+      <c r="P81" s="1">
+        <v>1350.0</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>1350.0</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="C82" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82" t="s">
+        <v>31</v>
+      </c>
+      <c r="F82" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G82" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J82" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K82">
+        <v>1000.0</v>
+      </c>
+      <c r="L82" t="s">
+        <v>26</v>
+      </c>
+      <c r="M82" t="s">
+        <v>27</v>
+      </c>
+      <c r="N82" t="s">
+        <v>28</v>
+      </c>
+      <c r="O82" t="s">
+        <v>29</v>
+      </c>
+      <c r="P82" s="1">
+        <v>1350.0</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>1350.0</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="C83" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G83" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J83" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K83">
+        <v>1000.0</v>
+      </c>
+      <c r="L83" t="s">
+        <v>26</v>
+      </c>
+      <c r="M83" t="s">
+        <v>27</v>
+      </c>
+      <c r="N83" t="s">
+        <v>28</v>
+      </c>
+      <c r="O83" t="s">
+        <v>29</v>
+      </c>
+      <c r="P83" s="1">
+        <v>945.0</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>945.0</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="C84" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G84" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J84" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K84">
+        <v>1000.0</v>
+      </c>
+      <c r="L84" t="s">
+        <v>26</v>
+      </c>
+      <c r="M84" t="s">
+        <v>27</v>
+      </c>
+      <c r="N84" t="s">
+        <v>28</v>
+      </c>
+      <c r="O84" t="s">
+        <v>29</v>
+      </c>
+      <c r="P84" s="1">
+        <v>945.0</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>945.0</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="C85" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G85" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J85" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K85">
+        <v>1000.0</v>
+      </c>
+      <c r="L85" t="s">
+        <v>26</v>
+      </c>
+      <c r="M85" t="s">
+        <v>27</v>
+      </c>
+      <c r="N85" t="s">
+        <v>28</v>
+      </c>
+      <c r="O85" t="s">
+        <v>29</v>
+      </c>
+      <c r="P85" s="1">
+        <v>945.0</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>945.0</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="C86" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G86" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J86" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K86">
+        <v>1000.0</v>
+      </c>
+      <c r="L86" t="s">
+        <v>26</v>
+      </c>
+      <c r="M86" t="s">
+        <v>27</v>
+      </c>
+      <c r="N86" t="s">
+        <v>28</v>
+      </c>
+      <c r="O86" t="s">
+        <v>29</v>
+      </c>
+      <c r="P86" s="1">
+        <v>990.0</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>990.0</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="C87" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G87" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J87" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K87">
+        <v>1000.0</v>
+      </c>
+      <c r="L87" t="s">
+        <v>26</v>
+      </c>
+      <c r="M87" t="s">
+        <v>27</v>
+      </c>
+      <c r="N87" t="s">
+        <v>28</v>
+      </c>
+      <c r="O87" t="s">
+        <v>29</v>
+      </c>
+      <c r="P87" s="1">
+        <v>990.0</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>990.0</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="C88" t="s">
+        <v>40</v>
+      </c>
+      <c r="D88" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G88" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J88" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K88">
+        <v>1000.0</v>
+      </c>
+      <c r="L88" t="s">
+        <v>26</v>
+      </c>
+      <c r="M88" t="s">
+        <v>27</v>
+      </c>
+      <c r="N88" t="s">
+        <v>28</v>
+      </c>
+      <c r="O88" t="s">
+        <v>29</v>
+      </c>
+      <c r="P88" s="1">
+        <v>990.0</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>990.0</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="C89" t="s">
+        <v>40</v>
+      </c>
+      <c r="D89" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" t="s">
+        <v>31</v>
+      </c>
+      <c r="F89" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G89" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J89" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K89">
+        <v>1000.0</v>
+      </c>
+      <c r="L89" t="s">
+        <v>26</v>
+      </c>
+      <c r="M89" t="s">
+        <v>27</v>
+      </c>
+      <c r="N89" t="s">
+        <v>28</v>
+      </c>
+      <c r="O89" t="s">
+        <v>29</v>
+      </c>
+      <c r="P89" s="1">
+        <v>990.0</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>990.0</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="C90" t="s">
+        <v>40</v>
+      </c>
+      <c r="D90" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" t="s">
+        <v>31</v>
+      </c>
+      <c r="F90" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G90" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J90" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K90">
+        <v>1000.0</v>
+      </c>
+      <c r="L90" t="s">
+        <v>26</v>
+      </c>
+      <c r="M90" t="s">
+        <v>27</v>
+      </c>
+      <c r="N90" t="s">
+        <v>28</v>
+      </c>
+      <c r="O90" t="s">
+        <v>29</v>
+      </c>
+      <c r="P90" s="1">
+        <v>990.0</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>990.0</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="C91" t="s">
+        <v>40</v>
+      </c>
+      <c r="D91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" t="s">
+        <v>31</v>
+      </c>
+      <c r="F91" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G91" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J91" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K91">
+        <v>1000.0</v>
+      </c>
+      <c r="L91" t="s">
+        <v>26</v>
+      </c>
+      <c r="M91" t="s">
+        <v>27</v>
+      </c>
+      <c r="N91" t="s">
+        <v>28</v>
+      </c>
+      <c r="O91" t="s">
+        <v>29</v>
+      </c>
+      <c r="P91" s="1">
+        <v>990.0</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>990.0</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="C92" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G92" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I92" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J41" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="K41">
-        <v>1000.0</v>
-      </c>
-      <c r="L41" t="s">
-        <v>26</v>
-      </c>
-      <c r="M41" t="s">
-        <v>27</v>
-      </c>
-      <c r="N41" t="s">
-        <v>28</v>
-      </c>
-      <c r="O41" t="s">
-        <v>29</v>
-      </c>
-      <c r="P41" s="1">
+      <c r="J92" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K92">
+        <v>1000.0</v>
+      </c>
+      <c r="L92" t="s">
+        <v>26</v>
+      </c>
+      <c r="M92" t="s">
+        <v>27</v>
+      </c>
+      <c r="N92" t="s">
+        <v>28</v>
+      </c>
+      <c r="O92" t="s">
+        <v>29</v>
+      </c>
+      <c r="P92" s="1">
+        <v>750.0</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>750.0</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="C93" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G93" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J93" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K93">
+        <v>1000.0</v>
+      </c>
+      <c r="L93" t="s">
+        <v>26</v>
+      </c>
+      <c r="M93" t="s">
+        <v>27</v>
+      </c>
+      <c r="N93" t="s">
+        <v>28</v>
+      </c>
+      <c r="O93" t="s">
+        <v>29</v>
+      </c>
+      <c r="P93" s="1">
+        <v>750.0</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>750.0</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="C94" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G94" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J94" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K94">
+        <v>1000.0</v>
+      </c>
+      <c r="L94" t="s">
+        <v>26</v>
+      </c>
+      <c r="M94" t="s">
+        <v>27</v>
+      </c>
+      <c r="N94" t="s">
+        <v>28</v>
+      </c>
+      <c r="O94" t="s">
+        <v>29</v>
+      </c>
+      <c r="P94" s="1">
+        <v>750.0</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>750.0</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="C95" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G95" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J95" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K95">
+        <v>1000.0</v>
+      </c>
+      <c r="L95" t="s">
+        <v>26</v>
+      </c>
+      <c r="M95" t="s">
+        <v>27</v>
+      </c>
+      <c r="N95" t="s">
+        <v>28</v>
+      </c>
+      <c r="O95" t="s">
+        <v>29</v>
+      </c>
+      <c r="P95" s="1">
+        <v>700.0</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>700.0</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="C96" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G96" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J96" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K96">
+        <v>1000.0</v>
+      </c>
+      <c r="L96" t="s">
+        <v>26</v>
+      </c>
+      <c r="M96" t="s">
+        <v>27</v>
+      </c>
+      <c r="N96" t="s">
+        <v>28</v>
+      </c>
+      <c r="O96" t="s">
+        <v>29</v>
+      </c>
+      <c r="P96" s="1">
+        <v>700.0</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>700.0</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="C97" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F97" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G97" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J97" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K97">
+        <v>1000.0</v>
+      </c>
+      <c r="L97" t="s">
+        <v>26</v>
+      </c>
+      <c r="M97" t="s">
+        <v>27</v>
+      </c>
+      <c r="N97" t="s">
+        <v>28</v>
+      </c>
+      <c r="O97" t="s">
+        <v>29</v>
+      </c>
+      <c r="P97" s="1">
+        <v>700.0</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>700.0</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="C98" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" t="s">
+        <v>22</v>
+      </c>
+      <c r="E98" t="s">
+        <v>31</v>
+      </c>
+      <c r="F98" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G98" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J98" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K98">
+        <v>1000.0</v>
+      </c>
+      <c r="L98" t="s">
+        <v>26</v>
+      </c>
+      <c r="M98" t="s">
+        <v>27</v>
+      </c>
+      <c r="N98" t="s">
+        <v>28</v>
+      </c>
+      <c r="O98" t="s">
+        <v>29</v>
+      </c>
+      <c r="P98" s="1">
+        <v>700.0</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>700.0</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="C99" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D99" t="s">
+        <v>22</v>
+      </c>
+      <c r="E99" t="s">
+        <v>31</v>
+      </c>
+      <c r="F99" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G99" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J99" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K99">
+        <v>1000.0</v>
+      </c>
+      <c r="L99" t="s">
+        <v>26</v>
+      </c>
+      <c r="M99" t="s">
+        <v>27</v>
+      </c>
+      <c r="N99" t="s">
+        <v>28</v>
+      </c>
+      <c r="O99" t="s">
+        <v>29</v>
+      </c>
+      <c r="P99" s="1">
+        <v>700.0</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>700.0</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="C100" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" t="s">
+        <v>31</v>
+      </c>
+      <c r="F100" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G100" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J100" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K100">
+        <v>1000.0</v>
+      </c>
+      <c r="L100" t="s">
+        <v>26</v>
+      </c>
+      <c r="M100" t="s">
+        <v>27</v>
+      </c>
+      <c r="N100" t="s">
+        <v>28</v>
+      </c>
+      <c r="O100" t="s">
+        <v>29</v>
+      </c>
+      <c r="P100" s="1">
+        <v>700.0</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>700.0</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="C101" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" t="s">
+        <v>23</v>
+      </c>
+      <c r="F101" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G101" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J101" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K101">
+        <v>1000.0</v>
+      </c>
+      <c r="L101" t="s">
+        <v>26</v>
+      </c>
+      <c r="M101" t="s">
+        <v>27</v>
+      </c>
+      <c r="N101" t="s">
+        <v>28</v>
+      </c>
+      <c r="O101" t="s">
+        <v>29</v>
+      </c>
+      <c r="P101" s="1">
+        <v>1175.0</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>1175.0</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="C102" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F102" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G102" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J102" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K102">
+        <v>1000.0</v>
+      </c>
+      <c r="L102" t="s">
+        <v>26</v>
+      </c>
+      <c r="M102" t="s">
+        <v>27</v>
+      </c>
+      <c r="N102" t="s">
+        <v>28</v>
+      </c>
+      <c r="O102" t="s">
+        <v>29</v>
+      </c>
+      <c r="P102" s="1">
+        <v>1175.0</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>1175.0</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="C103" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F103" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G103" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J103" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K103">
+        <v>1000.0</v>
+      </c>
+      <c r="L103" t="s">
+        <v>26</v>
+      </c>
+      <c r="M103" t="s">
+        <v>27</v>
+      </c>
+      <c r="N103" t="s">
+        <v>28</v>
+      </c>
+      <c r="O103" t="s">
+        <v>29</v>
+      </c>
+      <c r="P103" s="1">
+        <v>1175.0</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>1175.0</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="C104" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104" t="s">
+        <v>30</v>
+      </c>
+      <c r="F104" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G104" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J104" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K104">
+        <v>1000.0</v>
+      </c>
+      <c r="L104" t="s">
+        <v>26</v>
+      </c>
+      <c r="M104" t="s">
+        <v>27</v>
+      </c>
+      <c r="N104" t="s">
+        <v>28</v>
+      </c>
+      <c r="O104" t="s">
+        <v>29</v>
+      </c>
+      <c r="P104" s="1">
+        <v>1525.0</v>
+      </c>
+      <c r="Q104" s="1">
+        <v>1525.0</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="C105" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F105" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G105" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J105" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K105">
+        <v>1000.0</v>
+      </c>
+      <c r="L105" t="s">
+        <v>26</v>
+      </c>
+      <c r="M105" t="s">
+        <v>27</v>
+      </c>
+      <c r="N105" t="s">
+        <v>28</v>
+      </c>
+      <c r="O105" t="s">
+        <v>29</v>
+      </c>
+      <c r="P105" s="1">
+        <v>1525.0</v>
+      </c>
+      <c r="Q105" s="1">
+        <v>1525.0</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="C106" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F106" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G106" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J106" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K106">
+        <v>1000.0</v>
+      </c>
+      <c r="L106" t="s">
+        <v>26</v>
+      </c>
+      <c r="M106" t="s">
+        <v>27</v>
+      </c>
+      <c r="N106" t="s">
+        <v>28</v>
+      </c>
+      <c r="O106" t="s">
+        <v>29</v>
+      </c>
+      <c r="P106" s="1">
+        <v>1525.0</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>1525.0</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="C107" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" t="s">
+        <v>22</v>
+      </c>
+      <c r="E107" t="s">
+        <v>31</v>
+      </c>
+      <c r="F107" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G107" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J107" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K107">
+        <v>1000.0</v>
+      </c>
+      <c r="L107" t="s">
+        <v>26</v>
+      </c>
+      <c r="M107" t="s">
+        <v>27</v>
+      </c>
+      <c r="N107" t="s">
+        <v>28</v>
+      </c>
+      <c r="O107" t="s">
+        <v>29</v>
+      </c>
+      <c r="P107" s="1">
+        <v>1525.0</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>1525.0</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="C108" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" t="s">
+        <v>31</v>
+      </c>
+      <c r="F108" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G108" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J108" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K108">
+        <v>1000.0</v>
+      </c>
+      <c r="L108" t="s">
+        <v>26</v>
+      </c>
+      <c r="M108" t="s">
+        <v>27</v>
+      </c>
+      <c r="N108" t="s">
+        <v>28</v>
+      </c>
+      <c r="O108" t="s">
+        <v>29</v>
+      </c>
+      <c r="P108" s="1">
+        <v>1525.0</v>
+      </c>
+      <c r="Q108" s="1">
+        <v>1525.0</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="C109" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" t="s">
+        <v>31</v>
+      </c>
+      <c r="F109" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G109" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J109" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K109">
+        <v>1000.0</v>
+      </c>
+      <c r="L109" t="s">
+        <v>26</v>
+      </c>
+      <c r="M109" t="s">
+        <v>27</v>
+      </c>
+      <c r="N109" t="s">
+        <v>28</v>
+      </c>
+      <c r="O109" t="s">
+        <v>29</v>
+      </c>
+      <c r="P109" s="1">
+        <v>1525.0</v>
+      </c>
+      <c r="Q109" s="1">
+        <v>1525.0</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="C110" t="s">
+        <v>39</v>
+      </c>
+      <c r="D110" t="s">
+        <v>22</v>
+      </c>
+      <c r="E110" t="s">
+        <v>23</v>
+      </c>
+      <c r="F110" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G110" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J110" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K110">
+        <v>1000.0</v>
+      </c>
+      <c r="L110" t="s">
+        <v>26</v>
+      </c>
+      <c r="M110" t="s">
+        <v>27</v>
+      </c>
+      <c r="N110" t="s">
+        <v>28</v>
+      </c>
+      <c r="O110" t="s">
+        <v>29</v>
+      </c>
+      <c r="P110" s="1">
+        <v>1050.0</v>
+      </c>
+      <c r="Q110" s="1">
+        <v>1050.0</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="C111" t="s">
+        <v>39</v>
+      </c>
+      <c r="D111" t="s">
+        <v>22</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F111" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G111" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J111" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K111">
+        <v>1000.0</v>
+      </c>
+      <c r="L111" t="s">
+        <v>26</v>
+      </c>
+      <c r="M111" t="s">
+        <v>27</v>
+      </c>
+      <c r="N111" t="s">
+        <v>28</v>
+      </c>
+      <c r="O111" t="s">
+        <v>29</v>
+      </c>
+      <c r="P111" s="1">
+        <v>1050.0</v>
+      </c>
+      <c r="Q111" s="1">
+        <v>1050.0</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="C112" t="s">
+        <v>39</v>
+      </c>
+      <c r="D112" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G112" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J112" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K112">
+        <v>1000.0</v>
+      </c>
+      <c r="L112" t="s">
+        <v>26</v>
+      </c>
+      <c r="M112" t="s">
+        <v>27</v>
+      </c>
+      <c r="N112" t="s">
+        <v>28</v>
+      </c>
+      <c r="O112" t="s">
+        <v>29</v>
+      </c>
+      <c r="P112" s="1">
+        <v>1050.0</v>
+      </c>
+      <c r="Q112" s="1">
+        <v>1050.0</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="C113" t="s">
+        <v>39</v>
+      </c>
+      <c r="D113" t="s">
+        <v>22</v>
+      </c>
+      <c r="E113" t="s">
+        <v>30</v>
+      </c>
+      <c r="F113" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G113" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J113" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K113">
+        <v>1000.0</v>
+      </c>
+      <c r="L113" t="s">
+        <v>26</v>
+      </c>
+      <c r="M113" t="s">
+        <v>27</v>
+      </c>
+      <c r="N113" t="s">
+        <v>28</v>
+      </c>
+      <c r="O113" t="s">
+        <v>29</v>
+      </c>
+      <c r="P113" s="1">
+        <v>1350.0</v>
+      </c>
+      <c r="Q113" s="1">
+        <v>1350.0</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="C114" t="s">
+        <v>39</v>
+      </c>
+      <c r="D114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G114" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J114" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K114">
+        <v>1000.0</v>
+      </c>
+      <c r="L114" t="s">
+        <v>26</v>
+      </c>
+      <c r="M114" t="s">
+        <v>27</v>
+      </c>
+      <c r="N114" t="s">
+        <v>28</v>
+      </c>
+      <c r="O114" t="s">
+        <v>29</v>
+      </c>
+      <c r="P114" s="1">
+        <v>1350.0</v>
+      </c>
+      <c r="Q114" s="1">
+        <v>1350.0</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="C115" t="s">
+        <v>39</v>
+      </c>
+      <c r="D115" t="s">
+        <v>22</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G115" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J115" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K115">
+        <v>1000.0</v>
+      </c>
+      <c r="L115" t="s">
+        <v>26</v>
+      </c>
+      <c r="M115" t="s">
+        <v>27</v>
+      </c>
+      <c r="N115" t="s">
+        <v>28</v>
+      </c>
+      <c r="O115" t="s">
+        <v>29</v>
+      </c>
+      <c r="P115" s="1">
+        <v>1350.0</v>
+      </c>
+      <c r="Q115" s="1">
+        <v>1350.0</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="C116" t="s">
+        <v>39</v>
+      </c>
+      <c r="D116" t="s">
+        <v>22</v>
+      </c>
+      <c r="E116" t="s">
+        <v>31</v>
+      </c>
+      <c r="F116" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G116" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J116" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K116">
+        <v>1000.0</v>
+      </c>
+      <c r="L116" t="s">
+        <v>26</v>
+      </c>
+      <c r="M116" t="s">
+        <v>27</v>
+      </c>
+      <c r="N116" t="s">
+        <v>28</v>
+      </c>
+      <c r="O116" t="s">
+        <v>29</v>
+      </c>
+      <c r="P116" s="1">
+        <v>1350.0</v>
+      </c>
+      <c r="Q116" s="1">
+        <v>1350.0</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="C117" t="s">
+        <v>39</v>
+      </c>
+      <c r="D117" t="s">
+        <v>22</v>
+      </c>
+      <c r="E117" t="s">
+        <v>31</v>
+      </c>
+      <c r="F117" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G117" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J117" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K117">
+        <v>1000.0</v>
+      </c>
+      <c r="L117" t="s">
+        <v>26</v>
+      </c>
+      <c r="M117" t="s">
+        <v>27</v>
+      </c>
+      <c r="N117" t="s">
+        <v>28</v>
+      </c>
+      <c r="O117" t="s">
+        <v>29</v>
+      </c>
+      <c r="P117" s="1">
+        <v>1350.0</v>
+      </c>
+      <c r="Q117" s="1">
+        <v>1350.0</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="C118" t="s">
+        <v>39</v>
+      </c>
+      <c r="D118" t="s">
+        <v>22</v>
+      </c>
+      <c r="E118" t="s">
+        <v>31</v>
+      </c>
+      <c r="F118" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G118" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J118" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K118">
+        <v>1000.0</v>
+      </c>
+      <c r="L118" t="s">
+        <v>26</v>
+      </c>
+      <c r="M118" t="s">
+        <v>27</v>
+      </c>
+      <c r="N118" t="s">
+        <v>28</v>
+      </c>
+      <c r="O118" t="s">
+        <v>29</v>
+      </c>
+      <c r="P118" s="1">
+        <v>1350.0</v>
+      </c>
+      <c r="Q118" s="1">
+        <v>1350.0</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="C119" t="s">
+        <v>40</v>
+      </c>
+      <c r="D119" t="s">
+        <v>22</v>
+      </c>
+      <c r="E119" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G119" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J119" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K119">
+        <v>1000.0</v>
+      </c>
+      <c r="L119" t="s">
+        <v>26</v>
+      </c>
+      <c r="M119" t="s">
+        <v>27</v>
+      </c>
+      <c r="N119" t="s">
+        <v>28</v>
+      </c>
+      <c r="O119" t="s">
+        <v>29</v>
+      </c>
+      <c r="P119" s="1">
         <v>945.0</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q119" s="1">
         <v>945.0</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" t="s">
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="C120" t="s">
         <v>40</v>
       </c>
-      <c r="D42" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D120" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G120" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J120" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K120">
+        <v>1000.0</v>
+      </c>
+      <c r="L120" t="s">
+        <v>26</v>
+      </c>
+      <c r="M120" t="s">
+        <v>27</v>
+      </c>
+      <c r="N120" t="s">
+        <v>28</v>
+      </c>
+      <c r="O120" t="s">
+        <v>29</v>
+      </c>
+      <c r="P120" s="1">
+        <v>945.0</v>
+      </c>
+      <c r="Q120" s="1">
+        <v>945.0</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="C121" t="s">
+        <v>40</v>
+      </c>
+      <c r="D121" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F121" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G121" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J121" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K121">
+        <v>1000.0</v>
+      </c>
+      <c r="L121" t="s">
+        <v>26</v>
+      </c>
+      <c r="M121" t="s">
+        <v>27</v>
+      </c>
+      <c r="N121" t="s">
+        <v>28</v>
+      </c>
+      <c r="O121" t="s">
+        <v>29</v>
+      </c>
+      <c r="P121" s="1">
+        <v>945.0</v>
+      </c>
+      <c r="Q121" s="1">
+        <v>945.0</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="C122" t="s">
+        <v>40</v>
+      </c>
+      <c r="D122" t="s">
+        <v>22</v>
+      </c>
+      <c r="E122" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F122" s="3">
         <v>43282.0</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G122" s="4">
         <v>43544.0</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H122" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J122" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K122">
+        <v>1000.0</v>
+      </c>
+      <c r="L122" t="s">
+        <v>26</v>
+      </c>
+      <c r="M122" t="s">
+        <v>27</v>
+      </c>
+      <c r="N122" t="s">
+        <v>28</v>
+      </c>
+      <c r="O122" t="s">
+        <v>29</v>
+      </c>
+      <c r="P122" s="1">
+        <v>990.0</v>
+      </c>
+      <c r="Q122" s="1">
+        <v>990.0</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="C123" t="s">
+        <v>40</v>
+      </c>
+      <c r="D123" t="s">
+        <v>22</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F123" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G123" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J123" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K123">
+        <v>1000.0</v>
+      </c>
+      <c r="L123" t="s">
+        <v>26</v>
+      </c>
+      <c r="M123" t="s">
+        <v>27</v>
+      </c>
+      <c r="N123" t="s">
+        <v>28</v>
+      </c>
+      <c r="O123" t="s">
+        <v>29</v>
+      </c>
+      <c r="P123" s="1">
+        <v>990.0</v>
+      </c>
+      <c r="Q123" s="1">
+        <v>990.0</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="C124" t="s">
+        <v>40</v>
+      </c>
+      <c r="D124" t="s">
+        <v>22</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F124" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G124" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J124" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K124">
+        <v>1000.0</v>
+      </c>
+      <c r="L124" t="s">
+        <v>26</v>
+      </c>
+      <c r="M124" t="s">
+        <v>27</v>
+      </c>
+      <c r="N124" t="s">
+        <v>28</v>
+      </c>
+      <c r="O124" t="s">
+        <v>29</v>
+      </c>
+      <c r="P124" s="1">
+        <v>990.0</v>
+      </c>
+      <c r="Q124" s="1">
+        <v>990.0</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="C125" t="s">
+        <v>40</v>
+      </c>
+      <c r="D125" t="s">
+        <v>22</v>
+      </c>
+      <c r="E125" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="F125" s="3">
+        <v>43282.0</v>
+      </c>
+      <c r="G125" s="4">
+        <v>43544.0</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I125" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J42" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="K42">
-        <v>1000.0</v>
-      </c>
-      <c r="L42" t="s">
-        <v>26</v>
-      </c>
-      <c r="M42" t="s">
-        <v>27</v>
-      </c>
-      <c r="N42" t="s">
-        <v>28</v>
-      </c>
-      <c r="O42" t="s">
-        <v>29</v>
-      </c>
-      <c r="P42" s="1">
+      <c r="J125" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K125">
+        <v>1000.0</v>
+      </c>
+      <c r="L125" t="s">
+        <v>26</v>
+      </c>
+      <c r="M125" t="s">
+        <v>27</v>
+      </c>
+      <c r="N125" t="s">
+        <v>28</v>
+      </c>
+      <c r="O125" t="s">
+        <v>29</v>
+      </c>
+      <c r="P125" s="1">
         <v>990.0</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q125" s="1">
         <v>990.0</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" t="s">
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="C126" t="s">
         <v>40</v>
       </c>
-      <c r="D43" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D126" t="s">
+        <v>22</v>
+      </c>
+      <c r="E126" t="s">
+        <v>31</v>
+      </c>
+      <c r="F126" s="3">
+        <v>43283.0</v>
+      </c>
+      <c r="G126" s="4">
+        <v>43545.0</v>
+      </c>
+      <c r="H126" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="3">
-        <v>43282.0</v>
-      </c>
-      <c r="G43" s="4">
-        <v>43544.0</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="I126" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J126" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K126">
+        <v>1000.0</v>
+      </c>
+      <c r="L126" t="s">
+        <v>26</v>
+      </c>
+      <c r="M126" t="s">
+        <v>27</v>
+      </c>
+      <c r="N126" t="s">
+        <v>28</v>
+      </c>
+      <c r="O126" t="s">
+        <v>29</v>
+      </c>
+      <c r="P126" s="1">
+        <v>990.0</v>
+      </c>
+      <c r="Q126" s="1">
+        <v>990.0</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="C127" t="s">
+        <v>40</v>
+      </c>
+      <c r="D127" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127" t="s">
+        <v>31</v>
+      </c>
+      <c r="F127" s="3">
+        <v>43284.0</v>
+      </c>
+      <c r="G127" s="4">
+        <v>43546.0</v>
+      </c>
+      <c r="H127" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I127" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J43" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="K43">
-        <v>1000.0</v>
-      </c>
-      <c r="L43" t="s">
-        <v>26</v>
-      </c>
-      <c r="M43" t="s">
-        <v>27</v>
-      </c>
-      <c r="N43" t="s">
-        <v>28</v>
-      </c>
-      <c r="O43" t="s">
-        <v>29</v>
-      </c>
-      <c r="P43" s="1">
+      <c r="J127" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K127">
+        <v>1000.0</v>
+      </c>
+      <c r="L127" t="s">
+        <v>26</v>
+      </c>
+      <c r="M127" t="s">
+        <v>27</v>
+      </c>
+      <c r="N127" t="s">
+        <v>28</v>
+      </c>
+      <c r="O127" t="s">
+        <v>29</v>
+      </c>
+      <c r="P127" s="1">
         <v>990.0</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="Q127" s="1">
         <v>990.0</v>
       </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="5"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="5"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="5"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="5"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="5"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="5"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="5"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="5"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="5"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="5"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="5"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="5"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="5"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="5"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="5"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="5"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="5"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="5"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="5"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="5"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="5"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="5"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="5"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="5"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="5"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="5"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="5"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="5"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="5"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="5"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="5"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="5"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="5"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="5"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="5"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="5"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="5"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="5"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="5"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="5"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="5"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="5"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="5"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="5"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="5"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="5"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="5"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="5"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="5"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="5"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="5"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="5"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="5"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="5"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="5"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="5"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="5"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="5"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="5"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="5"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="5"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="5"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="5"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="5"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="5"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="5"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="5"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="5"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="5"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="5"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-    </row>
-    <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="5"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="5"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="5"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-    </row>
-    <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="5"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-    </row>
-    <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="5"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="5"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-    </row>
-    <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="5"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="5"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-    </row>
-    <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="5"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="5"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-    </row>
-    <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="5"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-    </row>
-    <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="5"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="5"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="5"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="5"/>
@@ -2826,125 +6405,461 @@
       <c r="G152" s="4"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="5"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="5"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="5"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="5"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="5"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="5"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="5"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="5"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="5"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="5"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="5"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="5"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="5"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="5"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="5"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="5"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="5"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="5"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="5"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="5"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="5"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="5"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="5"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="5"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="5"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="5"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="5"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="5"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="5"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="5"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="5"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="5"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="5"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="5"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="5"/>
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="A188" s="5"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="A189" s="5"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="A190" s="5"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="5"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="A192" s="5"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="A193" s="5"/>
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="A194" s="5"/>
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="A195" s="5"/>
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="5"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="A197" s="5"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="5"/>
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="A199" s="5"/>
+      <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="5"/>
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="5"/>
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="5"/>
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="5"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="5"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="5"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="5"/>
+      <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="5"/>
+      <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="5"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="5"/>
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="5"/>
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="5"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="A212" s="5"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="A213" s="5"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="5"/>
+      <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="5"/>
+      <c r="F215" s="4"/>
+      <c r="G215" s="4"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="5"/>
+      <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="A217" s="5"/>
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="5"/>
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="5"/>
+      <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="A220" s="5"/>
+      <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="5"/>
+      <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="A222" s="5"/>
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="A223" s="5"/>
+      <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="A224" s="5"/>
+      <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="A225" s="5"/>
+      <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="A226" s="5"/>
+      <c r="F226" s="4"/>
+      <c r="G226" s="4"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="A227" s="5"/>
+      <c r="F227" s="4"/>
+      <c r="G227" s="4"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="A228" s="5"/>
+      <c r="F228" s="4"/>
+      <c r="G228" s="4"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="A229" s="5"/>
+      <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="A230" s="5"/>
+      <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="A231" s="5"/>
+      <c r="F231" s="4"/>
+      <c r="G231" s="4"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="A232" s="5"/>
+      <c r="F232" s="4"/>
+      <c r="G232" s="4"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="A233" s="5"/>
+      <c r="F233" s="4"/>
+      <c r="G233" s="4"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="A234" s="5"/>
+      <c r="F234" s="4"/>
+      <c r="G234" s="4"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="A235" s="5"/>
+      <c r="F235" s="4"/>
+      <c r="G235" s="4"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="A236" s="5"/>
+      <c r="F236" s="4"/>
+      <c r="G236" s="4"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="F237" s="4"/>
+      <c r="G237" s="4"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="F238" s="4"/>
+      <c r="G238" s="4"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="F239" s="4"/>
+      <c r="G239" s="4"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="F240" s="4"/>
+      <c r="G240" s="4"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="F241" s="4"/>
+      <c r="G241" s="4"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="F242" s="4"/>
+      <c r="G242" s="4"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="F243" s="4"/>
+      <c r="G243" s="4"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="F244" s="4"/>
+      <c r="G244" s="4"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="F245" s="4"/>
+      <c r="G245" s="4"/>
+    </row>
     <row r="246" ht="15.75" customHeight="1"/>
     <row r="247" ht="15.75" customHeight="1"/>
     <row r="248" ht="15.75" customHeight="1"/>
@@ -3458,8 +7373,92 @@
     <row r="756" ht="15.75" customHeight="1"/>
     <row r="757" ht="15.75" customHeight="1"/>
     <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$U$154"/>
+  <autoFilter ref="$A$1:$U$238"/>
   <printOptions/>
   <pageMargins bottom="1.05277777777778" footer="0.0" header="0.0" left="0.7875" right="0.7875" top="1.05277777777778"/>
   <pageSetup orientation="portrait"/>

--- a/db/dummydata/schryver/schryver__freight_rates.xlsx
+++ b/db/dummydata/schryver/schryver__freight_rates.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="45">
   <si>
     <t>CUSTOMER_ID</t>
   </si>
@@ -140,6 +140,15 @@
   <si>
     <t>Veracruz</t>
   </si>
+  <si>
+    <t>lcl</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>PER_WM</t>
+  </si>
 </sst>
 </file>
 
@@ -6281,18 +6290,138 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="5"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
+      <c r="D128" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F128" s="3">
+        <v>43285.0</v>
+      </c>
+      <c r="G128" s="4">
+        <v>43547.0</v>
+      </c>
+      <c r="H128" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I128" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J128" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="K128" s="12">
+        <v>1000.0</v>
+      </c>
+      <c r="L128" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M128" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N128" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O128" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P128" s="12">
+        <v>35.0</v>
+      </c>
+      <c r="Q128" s="12">
+        <v>35.0</v>
+      </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="5"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
+      <c r="D129" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F129" s="3">
+        <v>43285.0</v>
+      </c>
+      <c r="G129" s="4">
+        <v>43547.0</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I129" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J129" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="K129" s="12">
+        <v>1000.0</v>
+      </c>
+      <c r="L129" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M129" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N129" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O129" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P129" s="12">
+        <v>35.0</v>
+      </c>
+      <c r="Q129" s="12">
+        <v>35.0</v>
+      </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="5"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
+      <c r="D130" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F130" s="3">
+        <v>43285.0</v>
+      </c>
+      <c r="G130" s="4">
+        <v>43547.0</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I130" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J130" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="K130" s="12">
+        <v>1000.0</v>
+      </c>
+      <c r="L130" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M130" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N130" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O130" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P130" s="12">
+        <v>35.0</v>
+      </c>
+      <c r="Q130" s="12">
+        <v>35.0</v>
+      </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="5"/>
